--- a/biology/Origine et évolution du vivant/Michael_Ruse/Michael_Ruse.xlsx
+++ b/biology/Origine et évolution du vivant/Michael_Ruse/Michael_Ruse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Escott Ruse, né le 21 juin 1940 à Birmingham, en Angleterre, est un philosophe des sciences canadien, spécialisé sur la théorie de l'évolution et sur les rapports entre sciences biologiques et religion.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Ruse a terminé sa carrière comme professeur de philosophie à l'Université d'État de Floride.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruse a animé le débat entre créationnisme et évolution darwinienne aux États-Unis. Il se considère à la fois comme athée et agnostique.
 </t>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Darwinian revolution (1979)  (ISBN 0-226-73164-2)
 Is science sexist? and other problems in the biomedical sciences (1981)  (ISBN 90-277-1250-6)
